--- a/Vocabularies/CO/co-cdr-g.xlsx
+++ b/Vocabularies/CO/co-cdr-g.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\Completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8525A23-1A43-4954-92C1-4C176E2EAB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EAD0FD-1714-4C0E-B951-A65F625C7F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="329">
   <si>
     <t>Term</t>
   </si>
@@ -909,9 +909,6 @@
     <t>Water Glossary</t>
   </si>
   <si>
-    <t>https://www.coloradoriverdistrict.org/</t>
-  </si>
-  <si>
     <t>First in time, first in right</t>
   </si>
   <si>
@@ -1012,6 +1009,15 @@
   </si>
   <si>
     <t>Four species of native fish are listed as endangered under the Endangered Species Act (ESA) in the Colorado River basin in the State of Colorado. A Recovery Program has been established to fulfill the goal of bringing populations of these four endangered fish back to self-sustaining levels. Recovery Program efforts may affect stream flow regimes and reservoir operations throughout the West Slope of Colorado. The four fish are the humpback chub (Gila cypha), the bonytail (Gila elegans), the razorback sucker (Xyrauchen texanus) and the Colorado pikeminnow (Ptychocheilus Lucius, formerly called the Colorado squawfish.) These are warm water fish, residing primarily in lower elevation stretches of the Colorado River west of Rifle, on the White River in Rio Blanco County and in the Yampa River in Moffat County.</t>
+  </si>
+  <si>
+    <t>CO-CRD</t>
+  </si>
+  <si>
+    <t>co-wg</t>
+  </si>
+  <si>
+    <t>Description and terms related to water use and water allocation used by the CRD.</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1553,7 @@
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1730,7 +1736,7 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>181</v>
@@ -1739,7 +1745,7 @@
         <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1792,7 +1798,7 @@
         <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1811,7 +1817,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -1991,7 +1997,7 @@
         <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2010,7 +2016,7 @@
         <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -2082,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2184,7 +2190,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>217</v>
@@ -2240,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2248,7 +2254,7 @@
         <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>222</v>
@@ -2260,7 +2266,7 @@
         <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2312,18 +2318,18 @@
         <v>96</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
       </c>
       <c r="I72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>227</v>
@@ -2345,10 +2351,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>229</v>
@@ -2371,7 +2377,7 @@
         <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2511,10 +2517,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>243</v>
@@ -2589,7 +2595,7 @@
         <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2674,10 +2680,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>256</v>
@@ -2794,7 +2800,7 @@
         <v>21</v>
       </c>
       <c r="I112" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -2802,7 +2808,7 @@
         <v>133</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -2846,7 +2852,7 @@
         <v>137</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
@@ -2898,13 +2904,13 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D122" t="s">
         <v>20</v>
@@ -2935,7 +2941,7 @@
         <v>18</v>
       </c>
       <c r="I124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -2954,7 +2960,7 @@
         <v>146</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D126" t="s">
         <v>19</v>
@@ -2962,10 +2968,10 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D127" t="s">
         <v>19</v>
@@ -3012,7 +3018,7 @@
         <v>150</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D131" t="s">
         <v>19</v>
@@ -3045,7 +3051,7 @@
         <v>153</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D134" t="s">
         <v>11</v>
@@ -3059,7 +3065,7 @@
         <v>154</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
@@ -3097,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,13 +3148,19 @@
       <c r="A2" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>292</v>
+      <c r="B2" t="s">
+        <v>326</v>
       </c>
       <c r="C2" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G2" t="s">
@@ -3210,8 +3222,7 @@
     <sortCondition ref="G1:G9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E3510E55-3F30-4BBA-8932-421F815C69AE}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{15A2EC53-737B-4612-B3A4-8B1AFDD3A474}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8091CAD9-131E-45FE-9226-92BC2E206B36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vocabularies/CO/co-cdr-g.xlsx
+++ b/Vocabularies/CO/co-cdr-g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\Completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/CO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EAD0FD-1714-4C0E-B951-A65F625C7F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B03A52-ADE0-A44A-BF06-4FD7BA59BB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="7660" yWindow="8440" windowWidth="30960" windowHeight="16920" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="330">
   <si>
     <t>Term</t>
   </si>
@@ -1018,6 +1018,9 @@
   </si>
   <si>
     <t>Description and terms related to water use and water allocation used by the CRD.</t>
+  </si>
+  <si>
+    <t>Legal and Regulatory</t>
   </si>
 </sst>
 </file>
@@ -1420,20 +1423,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
     <col min="4" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1470,10 +1473,10 @@
         <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1481,10 +1484,10 @@
         <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1492,10 +1495,10 @@
         <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1525,10 +1528,10 @@
         <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1536,10 +1539,10 @@
         <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>281</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -1581,13 +1584,13 @@
         <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="I11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1595,10 +1598,10 @@
         <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1645,10 +1648,10 @@
         <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1656,10 +1659,10 @@
         <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1703,10 +1706,10 @@
         <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1714,10 +1717,10 @@
         <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>284</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -1801,7 +1804,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1809,10 +1812,10 @@
         <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>285</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>287</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -1859,10 +1862,10 @@
         <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -1870,10 +1873,10 @@
         <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -1881,10 +1884,10 @@
         <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -1903,10 +1906,10 @@
         <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -1914,10 +1917,10 @@
         <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -1947,10 +1950,10 @@
         <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -1980,10 +1983,10 @@
         <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -2008,10 +2011,10 @@
         <v>202</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>72</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>80</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>81</v>
       </c>
@@ -2127,10 +2130,10 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>84</v>
       </c>
@@ -2163,10 +2166,10 @@
         <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
@@ -2185,10 +2188,10 @@
         <v>216</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>292</v>
       </c>
@@ -2196,10 +2199,10 @@
         <v>217</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
@@ -2218,10 +2221,10 @@
         <v>219</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
@@ -2232,10 +2235,10 @@
         <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>91</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>92</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>93</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>95</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>96</v>
       </c>
@@ -2321,13 +2324,13 @@
         <v>317</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="I72" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>296</v>
       </c>
@@ -2335,10 +2338,10 @@
         <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>97</v>
       </c>
@@ -2346,10 +2349,10 @@
         <v>228</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>298</v>
       </c>
@@ -2360,10 +2363,10 @@
         <v>229</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>98</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>99</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>100</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>101</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>102</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>103</v>
       </c>
@@ -2432,10 +2435,10 @@
         <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>104</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>105</v>
       </c>
@@ -2457,10 +2460,10 @@
         <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>106</v>
       </c>
@@ -2468,10 +2471,10 @@
         <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
@@ -2479,10 +2482,10 @@
         <v>239</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>300</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
@@ -2537,10 +2540,10 @@
         <v>244</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>112</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>113</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>114</v>
       </c>
@@ -2570,10 +2573,10 @@
         <v>159</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>115</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>116</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>117</v>
       </c>
@@ -2606,10 +2609,10 @@
         <v>249</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>118</v>
       </c>
@@ -2617,10 +2620,10 @@
         <v>250</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -2650,10 +2653,10 @@
         <v>253</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>122</v>
       </c>
@@ -2661,10 +2664,10 @@
         <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>123</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>302</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>124</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>125</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>126</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>127</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>128</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>261</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -2756,7 +2759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>129</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>130</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>131</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>132</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>133</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>134</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>135</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>136</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>137</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>138</v>
       </c>
@@ -2866,10 +2869,10 @@
         <v>269</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>139</v>
       </c>
@@ -2877,10 +2880,10 @@
         <v>160</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>140</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>141</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>312</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>143</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>144</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>145</v>
       </c>
@@ -2952,10 +2955,10 @@
         <v>274</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>146</v>
       </c>
@@ -2963,10 +2966,10 @@
         <v>321</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>314</v>
       </c>
@@ -2974,10 +2977,10 @@
         <v>322</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>148</v>
       </c>
@@ -2999,10 +3002,10 @@
         <v>276</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -3010,10 +3013,10 @@
         <v>277</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>150</v>
       </c>
@@ -3021,10 +3024,10 @@
         <v>323</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>152</v>
       </c>
@@ -3043,10 +3046,10 @@
         <v>279</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -3057,10 +3060,10 @@
         <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>154</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -3103,22 +3106,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>290</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
         <v>18</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -3183,20 +3186,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -3204,12 +3207,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>21</v>
       </c>

--- a/Vocabularies/CO/co-cdr-g.xlsx
+++ b/Vocabularies/CO/co-cdr-g.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/CO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B03A52-ADE0-A44A-BF06-4FD7BA59BB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE7E3A3-4767-EB4D-BFC4-CAFF1735AFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="8440" windowWidth="30960" windowHeight="16920" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="1400" yWindow="1860" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
     <sheet name="Vocabulary Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vocabulary!$A$1:$I$136</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="331">
   <si>
     <t>Term</t>
   </si>
@@ -93,9 +96,6 @@
     <t>Legal &amp; Regulatory</t>
   </si>
   <si>
-    <t xml:space="preserve">Data </t>
-  </si>
-  <si>
     <t>Utilities (Water, Wastewater, Stormwater)</t>
   </si>
   <si>
@@ -1021,6 +1021,12 @@
   </si>
   <si>
     <t>Legal and Regulatory</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Utilities</t>
   </si>
 </sst>
 </file>
@@ -1421,11 +1427,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1462,151 +1469,145 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
-      </c>
-      <c r="I11" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1615,26 +1616,26 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1642,143 +1643,149 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="I16" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B23" t="s">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
@@ -1788,155 +1795,140 @@
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
-        <v>156</v>
-      </c>
       <c r="C28" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>329</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B32" t="s">
-        <v>288</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D38" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -1944,32 +1936,32 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D41" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="D42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -1977,237 +1969,240 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>316</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="I47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D49" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="D50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D57" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D59" t="s">
-        <v>280</v>
-      </c>
-      <c r="E59" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>86</v>
+        <v>297</v>
+      </c>
+      <c r="B61" t="s">
+        <v>296</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D62" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -2215,102 +2210,102 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D64" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="D65" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="D65" t="s">
-        <v>280</v>
-      </c>
-      <c r="E65" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -2318,110 +2313,104 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="D72" t="s">
-        <v>329</v>
-      </c>
-      <c r="I72" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B75" t="s">
-        <v>297</v>
+        <v>116</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D75" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -2429,90 +2418,96 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D82" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D84" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D85" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D86" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="D87" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D87" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -2520,46 +2515,43 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B89" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D90" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -2567,112 +2559,112 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D93" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="C94" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>117</v>
+        <v>313</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="D96" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D97" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="D98" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D98" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D100" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D101" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="D102" t="s">
         <v>11</v>
@@ -2681,181 +2673,172 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B103" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D103" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D105" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D106" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D108" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="D108" t="s">
-        <v>329</v>
-      </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D110" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D111" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" t="s">
+        <v>282</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D112" t="s">
-        <v>21</v>
-      </c>
-      <c r="I112" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C113" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
@@ -2863,129 +2846,141 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>138</v>
+        <v>50</v>
+      </c>
+      <c r="B118" t="s">
+        <v>293</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D118" t="s">
-        <v>329</v>
+        <v>180</v>
+      </c>
+      <c r="I118" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" t="s">
+        <v>285</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D119" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C120" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B122" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
       </c>
       <c r="I124" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>145</v>
+        <v>286</v>
+      </c>
+      <c r="B125" t="s">
+        <v>287</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="D125" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D126" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="D127" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="E127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D128" t="s">
         <v>11</v>
@@ -2994,98 +2989,116 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="D129" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D130" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B131" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D131" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D130" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D131" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="D132" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D133" t="s">
+        <v>330</v>
+      </c>
+      <c r="I133" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D133" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C134" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D134" t="s">
         <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I136" xr:uid="{79450E0D-EE48-AF42-9BB1-401CE70383AC}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Legal &amp; Regulatory"/>
+        <filter val="Legal and Regulatory"/>
+        <filter val="Utilities (Water, Wastewater, Stormwater)"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:I133">
+      <sortCondition ref="D1:D136"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3106,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3144,38 +3157,38 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
         <v>290</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>326</v>
       </c>
-      <c r="C2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>327</v>
       </c>
-      <c r="E2" t="s">
-        <v>328</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3183,15 +3196,15 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3201,10 +3214,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3214,10 +3227,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>21</v>
+        <v>330</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
